--- a/STAC2021/적 구현.xlsx
+++ b/STAC2021/적 구현.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
   <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,114 @@
   </si>
   <si>
     <t>검은 가루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이스크림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>램프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>젤리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무지개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>능력(설명)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소비형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 형태 전방에 키보드를 휘둘러 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 닿으면 터지는 투사체 사과를 던짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 심고 특정키를 누르면 나무가 
+자람(사이퍼 감옥과 같음,초당 4데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1초마다 0.4데미지를 줌 공격할때는 이동 불가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력을 +3시켜준다.(최대 2회,전 무기 유지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 닿으면 바닥에 불이 붙음(초당 3데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본스택 상위호환 사거리 증가+데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 주위에 무지개가 생김
+(무지개에 닿으면 초당 7데미지)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 그 자리에서 3초뒤에 터짐
+범위안에 있는 적과 플레이어는 5데미지를 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우산을 펼쳐 방어 할 수 있음
+방어할때는 데미지를 받지 않음(공격 가능)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도되는 음표가 2데미지로 날라가서 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +422,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,8 +453,16 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -365,8 +481,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -384,15 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -430,12 +555,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -450,29 +599,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,20 +615,152 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -506,6 +772,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -820,168 +1093,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="6"/>
-    <col min="2" max="2" width="13.3984375" style="4" customWidth="1"/>
-    <col min="3" max="5" width="8.796875" style="2"/>
-    <col min="6" max="6" width="8.796875" style="5"/>
-    <col min="7" max="16" width="8.796875" style="6"/>
+    <col min="1" max="1" width="8.796875" style="1"/>
+    <col min="2" max="2" width="13.3984375" style="7" customWidth="1"/>
+    <col min="3" max="5" width="8.796875" style="8"/>
+    <col min="6" max="6" width="8.796875" style="9"/>
+    <col min="7" max="7" width="42.8984375" style="10" customWidth="1"/>
+    <col min="8" max="16" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-    </row>
-    <row r="2" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="12" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="11">
         <v>2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="4" t="s">
+      <c r="G2" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="11">
+        <v>5</v>
+      </c>
+      <c r="F3" s="11">
+        <v>6</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="11">
+        <v>4</v>
+      </c>
+      <c r="F4" s="11">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="11">
+        <v>0.4</v>
+      </c>
+      <c r="F5" s="11">
+        <v>8</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11">
+        <v>10</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11">
+        <v>5</v>
+      </c>
+      <c r="F8" s="11">
+        <v>15</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="11">
+        <v>7</v>
+      </c>
+      <c r="F9" s="11">
+        <v>3</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="11">
+        <v>5</v>
+      </c>
+      <c r="F10" s="11">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="11">
+        <v>3</v>
+      </c>
+      <c r="F11" s="11">
+        <v>15</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="11">
+        <v>2</v>
+      </c>
+      <c r="F12" s="11">
+        <v>8</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E13" s="11">
         <v>1</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F13" s="11">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="11">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="F14" s="11">
+        <v>15</v>
+      </c>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="11">
+        <v>2</v>
+      </c>
+      <c r="F15" s="11">
+        <v>14</v>
+      </c>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="11">
         <v>10</v>
       </c>
-      <c r="E4" s="2">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="E17" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="2">
-        <v>3</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2</v>
-      </c>
-      <c r="F7" s="5">
-        <v>2</v>
-      </c>
+      <c r="F17" s="11">
+        <v>22</v>
+      </c>
+      <c r="G17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="H1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="D1:D2 D20:D1048576 D13:D17">
+    <cfRule type="expression" dxfId="19" priority="17">
       <formula>$D1 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>$D1="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="C1:C2 C20:C1048576 C13:C17">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>$C1 = "Enemy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$C1="Player"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$C1 = "Enemy"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C12">
+    <cfRule type="expression" dxfId="15" priority="11">
+      <formula>$C3 = "Enemy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="12">
+      <formula>$C3="Player"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="expression" dxfId="13" priority="9">
+      <formula>$D3 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="10">
+      <formula>$D3="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="11" priority="7">
+      <formula>$D11 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$D11="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8">
+    <cfRule type="expression" dxfId="9" priority="5">
+      <formula>$D8 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="6">
+      <formula>$D8="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$D5 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$D5="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D12 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D12="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STAC2021/적 구현.xlsx
+++ b/STAC2021/적 구현.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,7 +414,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유도되는 음표가 2데미지로 날라가서 공격</t>
+    <t>유도되는 음표가 날라가서 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탱탱볼처럼 튀면서 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,81 +613,53 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1096,357 +1072,359 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="13.3984375" style="7" customWidth="1"/>
-    <col min="3" max="5" width="8.796875" style="8"/>
-    <col min="6" max="6" width="8.796875" style="9"/>
-    <col min="7" max="7" width="42.8984375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="5" customWidth="1"/>
+    <col min="3" max="5" width="8.796875" style="6"/>
+    <col min="6" max="6" width="8.796875" style="7"/>
+    <col min="7" max="7" width="42.8984375" style="8" customWidth="1"/>
     <col min="8" max="16" width="8.796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="9">
         <v>10</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="9">
         <v>6</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="9">
         <v>4</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="9">
         <v>12</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="9">
         <v>0.4</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="9">
         <v>8</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <v>10</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="9">
         <v>15</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>7</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="9">
         <v>5</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>3</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="9">
         <v>15</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="12" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>2</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <v>8</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <v>30</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>5</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <v>15</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>2</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <v>14</v>
       </c>
-      <c r="G15" s="11"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>3</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="9">
         <v>10</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <v>22</v>
       </c>
-      <c r="G17" s="11"/>
+      <c r="G17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1454,66 +1432,66 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D2 D20:D1048576 D13:D17">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="15" priority="17">
       <formula>$D1 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="18">
+    <cfRule type="expression" dxfId="14" priority="18">
       <formula>$D1="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C20:C1048576 C13:C17">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C1 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$C1="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$C3 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$C3="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$D3 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="8" priority="10">
       <formula>$D3="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$D11 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$D11="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$D8 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>$D8="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$D5 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$D5="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$D12 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="0" priority="2">
       <formula>$D12="근거리"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/STAC2021/적 구현.xlsx
+++ b/STAC2021/적 구현.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
   <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,7 +418,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탱탱볼처럼 튀면서 공격</t>
+    <t>초 근접에서 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%확률로 공격 무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파동 모양으로 움직이는 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 장판을 깔고 그곳에서는 이속이 대폭 줄어듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 평범히 걸어옴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1072,7 +1088,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1348,10 +1364,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1365,12 +1381,14 @@
         <v>10</v>
       </c>
       <c r="E14" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="9">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
@@ -1386,9 +1404,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="9">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
@@ -1404,9 +1424,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="9">
-        <v>10</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
@@ -1422,9 +1444,11 @@
         <v>2</v>
       </c>
       <c r="F17" s="9">
-        <v>22</v>
-      </c>
-      <c r="G17" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/STAC2021/적 구현.xlsx
+++ b/STAC2021/적 구현.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,23 +418,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>초 근접에서 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20%확률로 공격 무시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파동 모양으로 움직이는 공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바닥에 장판을 깔고 그곳에서는 이속이 대폭 줄어듦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥 평범히 걸어옴</t>
+    <t>탱탱볼처럼 튀면서 공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1088,7 +1072,7 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1364,10 +1348,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1381,14 +1365,12 @@
         <v>10</v>
       </c>
       <c r="E14" s="9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="9">
-        <v>16</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
@@ -1404,11 +1386,9 @@
         <v>2</v>
       </c>
       <c r="F15" s="9">
-        <v>4</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>47</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
@@ -1424,11 +1404,9 @@
         <v>3</v>
       </c>
       <c r="F16" s="9">
-        <v>6</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
@@ -1444,11 +1422,9 @@
         <v>2</v>
       </c>
       <c r="F17" s="9">
-        <v>15</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>45</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G17" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/STAC2021/적 구현.xlsx
+++ b/STAC2021/적 구현.xlsx
@@ -236,7 +236,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>공격력</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,7 +418,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>탱탱볼처럼 튀면서 공격</t>
+    <t>초 근접에서 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20%확률로 공격 무시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파동 모양으로 움직이는 공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 장판을 깔고 그곳에서는 이속이 대폭 줄어듦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 평범히 걸어옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에서 나와용!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,7 +687,63 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1069,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1348,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1365,12 +1449,14 @@
         <v>10</v>
       </c>
       <c r="E14" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F14" s="9">
-        <v>15</v>
-      </c>
-      <c r="G14" s="9"/>
+        <v>16</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
@@ -1386,9 +1472,11 @@
         <v>2</v>
       </c>
       <c r="F15" s="9">
-        <v>14</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
@@ -1404,9 +1492,11 @@
         <v>3</v>
       </c>
       <c r="F16" s="9">
-        <v>10</v>
-      </c>
-      <c r="G16" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="9" t="s">
@@ -1422,9 +1512,27 @@
         <v>2</v>
       </c>
       <c r="F17" s="9">
-        <v>22</v>
-      </c>
-      <c r="G17" s="9"/>
+        <v>15</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1432,67 +1540,83 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D2 D20:D1048576 D13:D17">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="23" priority="21">
       <formula>$D1 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>$D1="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C20:C1048576 C13:C17">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="21" priority="17">
       <formula>$C1 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="20" priority="18">
       <formula>$C1="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="19" priority="15">
       <formula>$C3 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
+    <cfRule type="expression" dxfId="18" priority="16">
       <formula>$C3="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="17" priority="13">
       <formula>$D3 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="10">
+    <cfRule type="expression" dxfId="16" priority="14">
       <formula>$D3="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$D11 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$D11="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="13" priority="9">
       <formula>$D8 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>$D8="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="11" priority="7">
       <formula>$D5 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="10" priority="8">
       <formula>$D5="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>$D12 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>$D12="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="expression" dxfId="7" priority="3">
+      <formula>$C18 = "Enemy"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="4">
+      <formula>$C18="Player"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>$D18 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$D18="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/STAC2021/적 구현.xlsx
+++ b/STAC2021/적 구현.xlsx
@@ -687,7 +687,7 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="40">
     <dxf>
       <fill>
         <patternFill>
@@ -719,6 +719,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -733,6 +761,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
@@ -853,6 +895,76 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1155,8 +1267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1169,7 +1281,7 @@
     <col min="8" max="16" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
@@ -1195,7 +1307,7 @@
       <c r="J1" s="15"/>
       <c r="K1" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -1218,7 +1330,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1238,7 +1350,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="46.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="9" t="s">
         <v>19</v>
       </c>
@@ -1257,8 +1369,13 @@
       <c r="G4" s="12" t="s">
         <v>35</v>
       </c>
+      <c r="I4" s="9"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1277,8 +1394,13 @@
       <c r="G5" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
     </row>
-    <row r="6" spans="1:11" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
@@ -1297,8 +1419,13 @@
       <c r="G6" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -1317,8 +1444,13 @@
       <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B8" s="9" t="s">
         <v>23</v>
       </c>
@@ -1337,8 +1469,13 @@
       <c r="G8" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>24</v>
       </c>
@@ -1357,8 +1494,13 @@
       <c r="G9" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B10" s="9" t="s">
         <v>25</v>
       </c>
@@ -1377,8 +1519,13 @@
       <c r="G10" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1397,8 +1544,13 @@
       <c r="G11" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1417,8 +1569,13 @@
       <c r="G12" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1438,7 +1595,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1615,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B15" s="9" t="s">
         <v>13</v>
       </c>
@@ -1478,7 +1635,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B16" s="9" t="s">
         <v>15</v>
       </c>
@@ -1540,83 +1697,115 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D1:D2 D20:D1048576 D13:D17">
-    <cfRule type="expression" dxfId="23" priority="21">
+    <cfRule type="expression" dxfId="29" priority="31">
       <formula>$D1 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="22">
+    <cfRule type="expression" dxfId="28" priority="32">
       <formula>$D1="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C2 C20:C1048576 C13:C17">
-    <cfRule type="expression" dxfId="21" priority="17">
+    <cfRule type="expression" dxfId="27" priority="27">
       <formula>$C1 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="18">
+    <cfRule type="expression" dxfId="26" priority="28">
       <formula>$C1="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C12">
-    <cfRule type="expression" dxfId="19" priority="15">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>$C3 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="16">
+    <cfRule type="expression" dxfId="24" priority="26">
       <formula>$C3="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="expression" dxfId="17" priority="13">
+    <cfRule type="expression" dxfId="23" priority="23">
       <formula>$D3 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="14">
+    <cfRule type="expression" dxfId="22" priority="24">
       <formula>$D3="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>$D11 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="20" priority="22">
       <formula>$D11="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="expression" dxfId="13" priority="9">
+    <cfRule type="expression" dxfId="19" priority="19">
       <formula>$D8 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="10">
+    <cfRule type="expression" dxfId="18" priority="20">
       <formula>$D8="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="expression" dxfId="11" priority="7">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$D5 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="8">
+    <cfRule type="expression" dxfId="16" priority="18">
       <formula>$D5="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="9" priority="5">
+    <cfRule type="expression" dxfId="15" priority="15">
       <formula>$D12 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="14" priority="16">
       <formula>$D12="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18">
-    <cfRule type="expression" dxfId="7" priority="3">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$C18 = "Enemy"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$C18="Player"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$D18 ="원거리"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$D18="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="expression" dxfId="7" priority="7">
+      <formula>$D11 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="8">
+      <formula>$D11="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$D8 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>$D8="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$D5 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$D5="근거리"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>$D12 ="원거리"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>$D12="근거리"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
